--- a/connexion-osiris/ig/StructureDefinition-oncofair-medicationadministration-report.xlsx
+++ b/connexion-osiris/ig/StructureDefinition-oncofair-medicationadministration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T15:06:03+00:00</t>
+    <t>2024-09-30T15:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/connexion-osiris/ig/StructureDefinition-oncofair-medicationadministration-report.xlsx
+++ b/connexion-osiris/ig/StructureDefinition-oncofair-medicationadministration-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-30T15:08:10+00:00</t>
+    <t>2024-09-30T15:18:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
